--- a/src/test/java/dataEngine/HEAT Alarms Activation.xlsx
+++ b/src/test/java/dataEngine/HEAT Alarms Activation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>openBrowser</t>
-  </si>
-  <si>
-    <t>Mozilla</t>
   </si>
   <si>
     <t>login</t>
@@ -482,6 +479,9 @@
   <si>
     <t>TS_079</t>
   </si>
+  <si>
+    <t>Chrome</t>
+  </si>
 </sst>
 </file>
 
@@ -672,8 +672,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -971,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,10 +1047,10 @@
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="35">
         <v>1</v>
@@ -1031,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="22"/>
@@ -1040,34 +1068,34 @@
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="35">
         <v>1</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="37">
         <v>1</v>
@@ -1076,34 +1104,34 @@
     </row>
     <row r="5" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>32</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>16</v>
       </c>
       <c r="H6" s="38">
         <v>1</v>
@@ -1112,71 +1140,71 @@
     </row>
     <row r="7" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="G8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>35</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>21</v>
-      </c>
       <c r="H9" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="38">
         <v>2030569</v>
@@ -1186,35 +1214,35 @@
     </row>
     <row r="11" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="38" t="s">
         <v>38</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="I11"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="38">
         <v>5</v>
@@ -1223,88 +1251,88 @@
     </row>
     <row r="13" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>41</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>42</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="38">
         <v>1</v>
@@ -17685,34 +17713,34 @@
     </row>
     <row r="18" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="38" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>47</v>
       </c>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>9</v>
@@ -17721,16 +17749,16 @@
     </row>
     <row r="20" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>9</v>
@@ -17740,16 +17768,16 @@
     </row>
     <row r="21" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>9</v>
@@ -17758,16 +17786,16 @@
     </row>
     <row r="22" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>9</v>
@@ -17776,52 +17804,52 @@
     </row>
     <row r="23" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23"/>
     </row>
     <row r="24" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>21</v>
-      </c>
       <c r="H24" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="36">
         <v>1</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="38">
         <v>1</v>
@@ -17830,34 +17858,34 @@
     </row>
     <row r="26" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>38</v>
-      </c>
       <c r="H26" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="35">
         <v>1</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" s="38">
         <v>1</v>
@@ -17866,10 +17894,10 @@
     </row>
     <row r="28" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="35">
         <v>1</v>
@@ -17878,58 +17906,58 @@
         <v>10</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="30" t="s">
-        <v>14</v>
-      </c>
       <c r="H30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>15</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>16</v>
       </c>
       <c r="H31" s="38">
         <v>1</v>
@@ -17938,16 +17966,16 @@
     </row>
     <row r="32" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="38">
         <v>1</v>
@@ -17956,16 +17984,16 @@
     </row>
     <row r="33" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H33" s="38" t="b">
         <v>0</v>
@@ -17974,16 +18002,16 @@
     </row>
     <row r="34" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" s="35">
         <v>1</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="38">
         <v>1</v>
@@ -17992,10 +18020,10 @@
     </row>
     <row r="35" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="35">
         <v>1</v>
@@ -18004,58 +18032,58 @@
         <v>10</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I36"/>
     </row>
     <row r="37" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="30" t="s">
-        <v>14</v>
-      </c>
       <c r="H37" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>15</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>16</v>
       </c>
       <c r="H38" s="38">
         <v>1</v>
@@ -18064,34 +18092,34 @@
     </row>
     <row r="39" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I39"/>
     </row>
     <row r="40" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" s="38">
         <v>1</v>
@@ -18100,16 +18128,16 @@
     </row>
     <row r="41" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="35">
         <v>1</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H41" s="38">
         <v>1</v>
@@ -18118,16 +18146,16 @@
     </row>
     <row r="42" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="38" t="b">
         <v>1</v>
@@ -18136,16 +18164,16 @@
     </row>
     <row r="43" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43" s="38" t="b">
         <v>1</v>
@@ -18154,34 +18182,34 @@
     </row>
     <row r="44" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="29" t="s">
-        <v>55</v>
-      </c>
       <c r="H44" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44"/>
     </row>
     <row r="45" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H45" s="38" t="b">
         <v>1</v>
@@ -18190,16 +18218,16 @@
     </row>
     <row r="46" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" s="38">
         <v>1</v>
@@ -18208,16 +18236,16 @@
     </row>
     <row r="47" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" s="38">
         <v>1</v>
@@ -18226,16 +18254,16 @@
     </row>
     <row r="48" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" s="38">
         <v>1</v>
@@ -18245,71 +18273,71 @@
     </row>
     <row r="49" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="38" t="s">
         <v>44</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>45</v>
       </c>
       <c r="I49"/>
       <c r="L49" s="26"/>
     </row>
     <row r="50" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="38" t="s">
         <v>46</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>47</v>
       </c>
       <c r="I50"/>
     </row>
     <row r="51" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I51"/>
     </row>
     <row r="52" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" s="38">
         <v>2030569</v>
@@ -18318,54 +18346,54 @@
     </row>
     <row r="53" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F53" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>21</v>
-      </c>
       <c r="H53" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I53"/>
       <c r="K53" s="22"/>
     </row>
     <row r="54" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I54"/>
       <c r="K54" s="22"/>
     </row>
     <row r="55" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="27">
         <v>4</v>
@@ -18375,16 +18403,16 @@
     </row>
     <row r="56" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F56" s="19">
         <v>1</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H56" s="27">
         <v>1</v>
@@ -18393,34 +18421,34 @@
     </row>
     <row r="57" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="35" t="s">
         <v>138</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>139</v>
       </c>
       <c r="I57"/>
     </row>
     <row r="58" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58" s="27">
         <v>1</v>
@@ -18429,16 +18457,16 @@
     </row>
     <row r="59" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" s="22">
         <v>1</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H59" s="27">
         <v>1</v>
@@ -18447,34 +18475,34 @@
     </row>
     <row r="60" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I60"/>
     </row>
     <row r="61" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F61" s="35">
         <v>1</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H61" s="38">
         <v>1</v>
@@ -18483,10 +18511,10 @@
     </row>
     <row r="62" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62" s="35">
         <v>1</v>
@@ -18495,76 +18523,76 @@
         <v>10</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I62"/>
     </row>
     <row r="63" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I63"/>
     </row>
     <row r="64" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="30" t="s">
-        <v>14</v>
-      </c>
       <c r="H64" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I64"/>
     </row>
     <row r="65" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I65"/>
     </row>
     <row r="66" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H66" s="37">
         <v>1</v>
@@ -18573,16 +18601,16 @@
     </row>
     <row r="67" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H67" s="37">
         <v>1</v>
@@ -18591,16 +18619,16 @@
     </row>
     <row r="68" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F68" s="35">
         <v>1</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H68" s="37">
         <v>1</v>
@@ -18609,67 +18637,67 @@
     </row>
     <row r="69" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F70" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="35" t="s">
         <v>26</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>9</v>
@@ -18677,50 +18705,50 @@
     </row>
     <row r="73" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F74" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G74" s="33" t="s">
-        <v>21</v>
-      </c>
       <c r="H74" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F75" s="35">
         <v>1</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H75" s="38">
         <v>1</v>
